--- a/ConsecrationDemo/Configs/Level.xlsx
+++ b/ConsecrationDemo/Configs/Level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B03646A-FF17-4D75-AA42-7846A7787972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27A42F4-243B-481B-8EBC-D43E67156E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,5,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第1组怪物ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +88,10 @@
   </si>
   <si>
     <t>group3Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -440,22 +440,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -463,22 +463,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -512,19 +512,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ConsecrationDemo/Configs/Level.xlsx
+++ b/ConsecrationDemo/Configs/Level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27A42F4-243B-481B-8EBC-D43E67156E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B8002-BFD7-45E7-B4D1-15FDC87476F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>0,4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001,90001,90001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -505,25 +513,48 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>80001</v>
+      <c r="A4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>80001</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/ConsecrationDemo/Configs/Level.xlsx
+++ b/ConsecrationDemo/Configs/Level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B8002-BFD7-45E7-B4D1-15FDC87476F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61C517-A753-4ABA-8E3A-D9D410BFDE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>90001,90001,90001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001,90001,90002,90002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3,5,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +437,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -517,10 +525,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>

--- a/ConsecrationDemo/Configs/Level.xlsx
+++ b/ConsecrationDemo/Configs/Level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61C517-A753-4ABA-8E3A-D9D410BFDE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D69C784-296E-44E1-9AA9-9D4C6523C09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,11 +103,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>90001,90001,90002,90002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,3,5,7</t>
+    <t>0,3,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001,90001,90002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -525,10 +525,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>

--- a/ConsecrationDemo/Configs/Level.xlsx
+++ b/ConsecrationDemo/Configs/Level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D69C784-296E-44E1-9AA9-9D4C6523C09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AA481C-7D24-4A8B-B341-9C444B807FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,11 +103,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,3,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90001,90001,90002</t>
+    <t>90001,90002,90003,90004,90005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,8,1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -522,47 +566,102 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>80001</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/ConsecrationDemo/Configs/Level.xlsx
+++ b/ConsecrationDemo/Configs/Level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AA481C-7D24-4A8B-B341-9C444B807FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B0CC51-897A-47DE-A336-7B93DAD1AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7125" yWindow="1140" windowWidth="18938" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,26 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,4,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90001,90001,90001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90001,90002,90003,90004,90005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,8,1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +132,150 @@
   </si>
   <si>
     <t>90005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000,90000,90000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000,90001,90000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001,90001,90000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001,90001,90002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000,90001,90002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001,90001,90002,90003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001,90002,90003,90003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001,90003,90004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001,90003,90004,90004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90001,90002,90003,90004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90005,90001,90004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,3,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,1,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,2,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0,6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1,4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,2,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2,0,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -566,103 +690,220 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>80001</v>
+      <c r="A10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ConsecrationDemo/Configs/Level.xlsx
+++ b/ConsecrationDemo/Configs/Level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B0CC51-897A-47DE-A336-7B93DAD1AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C2398B-0F30-4330-A89F-CC29EC133285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="1140" windowWidth="18938" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="24307" windowHeight="15059" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,7 +275,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,2,0,8</t>
+    <t>4,8,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2,6,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +609,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -860,13 +864,13 @@
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
